--- a/1.5.1_Project_Planning/Gantt_Diagram.xlsx
+++ b/1.5.1_Project_Planning/Gantt_Diagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorOmar\Desktop\Diplomado en SW embebido\Repositorio_Proyecto_Integrador\M4_DCMVC\1.5.1 Project Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uribe\Documents\Files\CESEQ\M4_DCMVC\M4_DCMVC\1.5.1_Project_Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
     <definedName name="PeriodInPlan">'Planificador de proyectos'!A$4=MEDIAN('Planificador de proyectos'!A$4,'Planificador de proyectos'!$C1,'Planificador de proyectos'!$C1+'Planificador de proyectos'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Planificador de proyectos'!$C1&gt;0)</definedName>
     <definedName name="PorcentajeCompletado">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
     <definedName name="Real">(PeriodInActual*('Planificador de proyectos'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="TitleRegion..BO60">'Planificador de proyectos'!$B$3:$B$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificador de proyectos'!$3:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,6 +592,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,33 +642,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="% Completado" xfId="16"/>
     <cellStyle name="Actividad" xfId="2"/>
     <cellStyle name="Control del periodo resaltado" xfId="7"/>
-    <cellStyle name="Encabezado 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezados de los periodos" xfId="3"/>
     <cellStyle name="Encabezados del proyecto" xfId="4"/>
     <cellStyle name="Etiqueta" xfId="5"/>
+    <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Leyenda de la duración real" xfId="15"/>
     <cellStyle name="Leyenda de la duración real (fuera del plan)" xfId="17"/>
     <cellStyle name="Leyenda del % completado (fuera del plan)" xfId="18"/>
     <cellStyle name="Leyenda del plan" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Porcentaje completado" xfId="6"/>
-    <cellStyle name="Texto explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
   <dxfs count="10">
@@ -1054,11 +1054,11 @@
   </sheetPr>
   <dimension ref="B1:BQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
@@ -1078,11 +1078,11 @@
       <c r="G1" s="13"/>
     </row>
     <row r="2" spans="2:69" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1090,70 +1090,70 @@
         <v>34</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="37"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="22" t="s">
+      <c r="W2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="38"/>
       <c r="AB2" s="19"/>
-      <c r="AC2" s="22" t="s">
+      <c r="AC2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="36"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="38"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
     </row>
     <row r="3" spans="2:69" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1180,12 +1180,12 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>34</v>
       </c>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="19" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="7">
@@ -1644,10 +1644,10 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
     </row>
     <row r="22" spans="2:34" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
